--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">X.- ASUNTOS TURNADOS A ELABORACION DE PROYECTO</t>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">c) Entre núcleo(s) de población ejidal o comunal y sociedades.</t>
   </si>
   <si>
+    <t xml:space="preserve">d) Entre núcleo(s) de población ejidal o comunal y colonia agricola que adopta dominio pleno.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -65,144 +68,144 @@
     <t xml:space="preserve">a) Contra actos de autoridades administrativas o jurisdiccionales, fuera de juicio; o,</t>
   </si>
   <si>
+    <t xml:space="preserve">b) Contra  actos de particulares;</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">b) Contra  actos de particulares;</t>
+    <t xml:space="preserve">Reconocimiento de régimen comunal (fracc. III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nulidades promovidas en contra de resoluciones de autoridades agrarias (fracc. IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflictos derivados de la tenencia de la tierra (fracc. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
+    <t xml:space="preserve">Controversias en materia agraria (fracc. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) De ejidatarios, comuneros, posesionarios o avecindados entre sí; y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) Entre ejidatarios, comuneros, posesionarios y avecindados con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los órganos del núcleo de población.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Reconocimiento de régimen comunal (fracc. III)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nulidades promovidas en contra de resoluciones de autoridades agrarias (fracc. IV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflictos derivados de la tenencia de la tierra (fracc. V)</t>
+    <t xml:space="preserve">Sucesión de derechos agrarios (fracc. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juicios de nulidad promovidos con base en:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Las hipótesis contenidas en la fracc. VIII y IX del art. 27 constitucional; y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) En actos o contratos que contravienen las Leyes Agrarias (fracc. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omisiones en que incurriera la Procuraduría Agraria, causando perjuicios a personas y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entidades mencionadas (fracc. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asuntos de Jurisdicción Voluntaria (fracc. X)</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">De las controversias relativas a los contratos de  asociación o aprovechamiento de tierras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ejidales a que se refiere el art. 45 de la Ley Agraria (fracc. XI);</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Controversias en materia agraria (fracc. VI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) De ejidatarios, comuneros, posesionarios o avecindados entre sí; y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) Entre ejidatarios, comuneros, posesionarios y avecindados con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">los órganos del núcleo de población.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucesión de derechos agrarios (fracc. VII)</t>
+    <t xml:space="preserve">De la reversión a que se refiere el art. 79 de la Ley Agraria (fracc. XII);</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
+    <t xml:space="preserve">De la ejecución de:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Los convenios a que se refiere la fracc. VI del art. 85 de la Ley Agraria; y,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) Los laudos arbitrales en materia agraria; previa determinación de que se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encuentren apegados a las disposiciones legales aplicables (fracc. XIII);</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juicios de nulidad promovidos con base en:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Las hipótesis contenidas en la fracc. VIII y IX del art. 27 constitucional; y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) En actos o contratos que contravienen las Leyes Agrarias (fracc. VIII)</t>
+    <t xml:space="preserve">De los demás asuntos que determinen las leyes (fracc. XIV));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restitución, reconocimiento y titulación de bienes comunales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(L.F.R.A.); (Art. IV Transitorio L.O.T.A. Fracc. I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privación de derechos agrarios (L.F.R.A.); (Art.V trans. L.O.T.A.)</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omisiones en que incurriera la Procuraduría Agraria, causando perjuicios a personas y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entidades mencionadas (fracc. IX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asuntos de Jurisdicción Voluntaria (fracc. X)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De las controversias relativas a los contratos de  asociación o aprovechamiento de tierras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ejidales a que se refiere el art. 45 de la Ley Agraria (fracc. XI);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De la reversión a que se refiere el art. 79 de la Ley Agraria (fracc. XII);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De la ejecución de:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Los convenios a que se refiere la fracc. VI del art. 85 de la Ley Agraria; y,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) Los laudos arbitrales en materia agraria; previa determinación de que se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encuentren apegados a las disposiciones legales aplicables (fracc. XIII);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De los demás asuntos que determinen las leyes (fracc. XIV));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restitución, reconocimiento y titulación de bienes comunales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(L.F.R.A.); (Art. IV Transitorio L.O.T.A. Fracc. I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privación de derechos agrarios (L.F.R.A.); (Art.V trans. L.O.T.A.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inconformidades (L.F.R.A.); (Art. V Trans. L.O.T.A.)</t>
   </si>
   <si>
@@ -224,19 +227,16 @@
     <t xml:space="preserve">T O T A L:</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEBRERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 9</t>
@@ -746,10 +746,12 @@
       <c r="E9"/>
       <c r="F9" s="1"/>
       <c r="G9"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -776,7 +778,9 @@
     </row>
     <row r="11">
       <c r="A11"/>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -784,18 +788,16 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -809,7 +811,9 @@
       <c r="M12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -818,13 +822,9 @@
       <c r="E13"/>
       <c r="F13" s="1"/>
       <c r="G13"/>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13"/>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -832,21 +832,17 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14"/>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -854,26 +850,28 @@
     </row>
     <row r="15">
       <c r="A15"/>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15"/>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
       <c r="I15"/>
-      <c r="J15"/>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -881,16 +879,18 @@
       <c r="G16"/>
       <c r="H16" s="1"/>
       <c r="I16"/>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
+      <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -898,96 +898,94 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" s="1"/>
       <c r="G18"/>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18"/>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
+      <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
       <c r="I19"/>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20"/>
-      <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20"/>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
+      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21"/>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
       <c r="G21"/>
-      <c r="H21"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
       <c r="I21"/>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1001,22 +999,20 @@
       <c r="M22"/>
     </row>
     <row r="23">
-      <c r="A23"/>
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="1"/>
       <c r="G23"/>
-      <c r="H23" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23"/>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
+      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -1024,7 +1020,7 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1033,7 +1029,9 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -1041,86 +1039,82 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="1"/>
       <c r="G25"/>
-      <c r="H25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25"/>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
     </row>
     <row r="26">
       <c r="A26"/>
-      <c r="B26"/>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
       <c r="I26"/>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27"/>
-      <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27"/>
-      <c r="J27" t="s">
-        <v>35</v>
-      </c>
+      <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
       <c r="I28"/>
-      <c r="J28"/>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1134,9 +1128,11 @@
       <c r="M29"/>
     </row>
     <row r="30">
-      <c r="A30"/>
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1145,9 +1141,7 @@
       <c r="G30"/>
       <c r="H30" s="1"/>
       <c r="I30"/>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
+      <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -1155,21 +1149,17 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31"/>
-      <c r="H31" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -1177,26 +1167,30 @@
     </row>
     <row r="32">
       <c r="A32"/>
-      <c r="B32"/>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
       <c r="G32"/>
-      <c r="H32"/>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
+      <c r="A33"/>
+      <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1210,9 +1204,11 @@
       <c r="M33"/>
     </row>
     <row r="34">
-      <c r="A34"/>
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1221,16 +1217,16 @@
       <c r="G34"/>
       <c r="H34" s="1"/>
       <c r="I34"/>
-      <c r="J34" t="s">
-        <v>11</v>
-      </c>
+      <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35"/>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -1238,39 +1234,35 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36"/>
-      <c r="H36" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36"/>
-      <c r="J36" t="s">
-        <v>49</v>
-      </c>
+      <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -1278,18 +1270,16 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -1303,9 +1293,11 @@
       <c r="M38"/>
     </row>
     <row r="39">
-      <c r="A39"/>
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1314,16 +1306,16 @@
       <c r="G39"/>
       <c r="H39" s="1"/>
       <c r="I39"/>
-      <c r="J39" t="s">
-        <v>11</v>
-      </c>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
     </row>
     <row r="40">
       <c r="A40"/>
-      <c r="B40"/>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -1331,37 +1323,35 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
+      <c r="A41"/>
+      <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="1"/>
       <c r="G41"/>
-      <c r="H41" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41"/>
-      <c r="J41" t="s">
-        <v>8</v>
-      </c>
+      <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
     <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1369,18 +1359,16 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1394,9 +1382,11 @@
       <c r="M43"/>
     </row>
     <row r="44">
-      <c r="A44"/>
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1405,9 +1395,7 @@
       <c r="G44"/>
       <c r="H44" s="1"/>
       <c r="I44"/>
-      <c r="J44" t="s">
-        <v>11</v>
-      </c>
+      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
@@ -1415,7 +1403,7 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1424,7 +1412,9 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45"/>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
@@ -1432,7 +1422,7 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1441,16 +1431,16 @@
       <c r="G46"/>
       <c r="H46" s="1"/>
       <c r="I46"/>
-      <c r="J46" t="s">
-        <v>11</v>
-      </c>
+      <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
     <row r="47">
       <c r="A47"/>
-      <c r="B47"/>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -1458,37 +1448,35 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
+      <c r="A48"/>
+      <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" s="1"/>
       <c r="G48"/>
-      <c r="H48" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H48" s="1"/>
       <c r="I48"/>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
+      <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
     </row>
     <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -1496,18 +1484,16 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
+      <c r="A50"/>
+      <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -1515,17 +1501,17 @@
       <c r="G50"/>
       <c r="H50" s="1"/>
       <c r="I50"/>
-      <c r="J50" t="s">
-        <v>11</v>
-      </c>
+      <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
     </row>
     <row r="51">
-      <c r="A51"/>
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -1534,14 +1520,18 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
     </row>
     <row r="52">
       <c r="A52"/>
-      <c r="B52"/>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -1555,12 +1545,8 @@
       <c r="M52"/>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
+      <c r="A53"/>
+      <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -1568,16 +1554,18 @@
       <c r="G53"/>
       <c r="H53" s="1"/>
       <c r="I53"/>
-      <c r="J53" t="s">
-        <v>11</v>
-      </c>
+      <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
     </row>
     <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -1585,18 +1573,16 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
+      <c r="A55"/>
+      <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -1604,16 +1590,18 @@
       <c r="G55"/>
       <c r="H55" s="1"/>
       <c r="I55"/>
-      <c r="J55" t="s">
-        <v>11</v>
-      </c>
+      <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -1621,18 +1609,16 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
+      <c r="A57"/>
+      <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -1640,15 +1626,15 @@
       <c r="G57"/>
       <c r="H57" s="1"/>
       <c r="I57"/>
-      <c r="J57" t="s">
-        <v>11</v>
-      </c>
+      <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
     </row>
     <row r="58">
-      <c r="A58"/>
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
@@ -1659,14 +1645,18 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
     </row>
     <row r="59">
       <c r="A59"/>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
@@ -1691,47 +1681,47 @@
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60" t="s">
-        <v>67</v>
-      </c>
-      <c r="M60" t="s">
-        <v>68</v>
-      </c>
+      <c r="L60"/>
+      <c r="M60"/>
     </row>
     <row r="61">
       <c r="A61"/>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
+      <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61" t="s">
-        <v>70</v>
-      </c>
+      <c r="F61"/>
       <c r="G61"/>
-      <c r="H61" t="s">
-        <v>71</v>
-      </c>
+      <c r="H61"/>
       <c r="I61"/>
-      <c r="J61" t="s">
-        <v>72</v>
-      </c>
+      <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
+      <c r="L61" t="s">
+        <v>68</v>
+      </c>
+      <c r="M61" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62"/>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62"/>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
       <c r="G62"/>
-      <c r="H62"/>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
       <c r="I62"/>
-      <c r="J62"/>
+      <c r="J62" t="s">
+        <v>72</v>
+      </c>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -1772,20 +1762,35 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65" t="s">
-        <v>73</v>
-      </c>
+      <c r="F65"/>
       <c r="G65"/>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
+      <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" t="s">
-        <v>75</v>
-      </c>
+      <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">X.- ASUNTOS TURNADOS A ELABORACION DE PROYECTO</t>
@@ -47,193 +47,319 @@
     <t xml:space="preserve">a) Entre dos o más núcleos de población ejidal o comunal;</t>
   </si>
   <si>
+    <t xml:space="preserve">H09_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) Entre núcleo(s) de población ejidal o comunal y pequeños propietarios; y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c) Entre núcleo(s) de población ejidal o comunal y sociedades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d) Entre núcleo(s) de población ejidal o comunal y colonia agricola que adopta dominio pleno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restitución de tierras, bosques y aguas a los núcleos de población o a sus integrantes; (fracc. II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Contra actos de autoridades administrativas o jurisdiccionales, fuera de juicio; o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) Contra  actos de particulares;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconocimiento de régimen comunal (fracc. III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nulidades promovidas en contra de resoluciones de autoridades agrarias (fracc. IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflictos derivados de la tenencia de la tierra (fracc. V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controversias en materia agraria (fracc. VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) De ejidatarios, comuneros, posesionarios o avecindados entre sí; y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) Entre ejidatarios, comuneros, posesionarios y avecindados con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los órganos del núcleo de población.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucesión de derechos agrarios (fracc. VII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juicios de nulidad promovidos con base en:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Las hipótesis contenidas en la fracc. VIII y IX del art. 27 constitucional; y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) En actos o contratos que contravienen las Leyes Agrarias (fracc. VIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omisiones en que incurriera la Procuraduría Agraria, causando perjuicios a personas y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entidades mencionadas (fracc. IX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asuntos de Jurisdicción Voluntaria (fracc. X)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De las controversias relativas a los contratos de  asociación o aprovechamiento de tierras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ejidales a que se refiere el art. 45 de la Ley Agraria (fracc. XI);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De la reversión a que se refiere el art. 79 de la Ley Agraria (fracc. XII);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De la ejecución de:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Los convenios a que se refiere la fracc. VI del art. 85 de la Ley Agraria; y,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) Los laudos arbitrales en materia agraria; previa determinación de que se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encuentren apegados a las disposiciones legales aplicables (fracc. XIII);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De los demás asuntos que determinen las leyes (fracc. XIV));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restitución, reconocimiento y titulación de bienes comunales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(L.F.R.A.); (Art. IV Transitorio L.O.T.A. Fracc. I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privación de derechos agrarios (L.F.R.A.); (Art.V trans. L.O.T.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconformidades (L.F.R.A.); (Art. V Trans. L.O.T.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros asuntos contenidos en la legislación agraria anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H09_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Conflictos por la posesión y goce de una unidad de dotación, suspensión de derechos agrarios, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El total de esta sección debe ser mayor al especificado en la Hoja8bis, sección "En Instrucción", apartado "Para Sentencia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T O T A L:</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">b) Entre núcleo(s) de población ejidal o comunal y pequeños propietarios; y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c) Entre núcleo(s) de población ejidal o comunal y sociedades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d) Entre núcleo(s) de población ejidal o comunal y colonia agricola que adopta dominio pleno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restitución de tierras, bosques y aguas a los núcleos de población o a sus integrantes; (fracc. II)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Contra actos de autoridades administrativas o jurisdiccionales, fuera de juicio; o,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) Contra  actos de particulares;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconocimiento de régimen comunal (fracc. III)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nulidades promovidas en contra de resoluciones de autoridades agrarias (fracc. IV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflictos derivados de la tenencia de la tierra (fracc. V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controversias en materia agraria (fracc. VI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) De ejidatarios, comuneros, posesionarios o avecindados entre sí; y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) Entre ejidatarios, comuneros, posesionarios y avecindados con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">los órganos del núcleo de población.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucesión de derechos agrarios (fracc. VII)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juicios de nulidad promovidos con base en:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Las hipótesis contenidas en la fracc. VIII y IX del art. 27 constitucional; y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) En actos o contratos que contravienen las Leyes Agrarias (fracc. VIII)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omisiones en que incurriera la Procuraduría Agraria, causando perjuicios a personas y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entidades mencionadas (fracc. IX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asuntos de Jurisdicción Voluntaria (fracc. X)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De las controversias relativas a los contratos de  asociación o aprovechamiento de tierras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ejidales a que se refiere el art. 45 de la Ley Agraria (fracc. XI);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De la reversión a que se refiere el art. 79 de la Ley Agraria (fracc. XII);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De la ejecución de:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Los convenios a que se refiere la fracc. VI del art. 85 de la Ley Agraria; y,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) Los laudos arbitrales en materia agraria; previa determinación de que se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encuentren apegados a las disposiciones legales aplicables (fracc. XIII);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De los demás asuntos que determinen las leyes (fracc. XIV));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restitución, reconocimiento y titulación de bienes comunales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(L.F.R.A.); (Art. IV Transitorio L.O.T.A. Fracc. I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privación de derechos agrarios (L.F.R.A.); (Art.V trans. L.O.T.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inconformidades (L.F.R.A.); (Art. V Trans. L.O.T.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otros asuntos contenidos en la legislación agraria anterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Conflictos por la posesión y goce de una unidad de dotación, suspensión de derechos agrarios, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El total de esta sección debe ser mayor al especificado en la Hoja8bis, sección "En Instrucción", apartado "Para Sentencia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T O T A L:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">2024</t>
@@ -725,13 +851,15 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G8"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I8"/>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
+      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -739,20 +867,20 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G9"/>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -760,18 +888,20 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G10"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I10"/>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
+      <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -779,18 +909,20 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11"/>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G11"/>
-      <c r="H11"/>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I11"/>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -812,17 +944,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="1"/>
+      <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="1"/>
+      <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -832,18 +964,20 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G14"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I14"/>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
+      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -851,20 +985,20 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15"/>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G15"/>
-      <c r="H15" t="s">
-        <v>15</v>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I15"/>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
+      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -875,9 +1009,9 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="1"/>
+      <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="1"/>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -886,21 +1020,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G17"/>
-      <c r="H17"/>
+      <c r="H17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I17"/>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
+      <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -911,9 +1047,9 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="1"/>
+      <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" s="1"/>
+      <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -922,23 +1058,23 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19"/>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G19"/>
-      <c r="H19" t="s">
-        <v>23</v>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I19"/>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -949,9 +1085,9 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="1"/>
+      <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="1"/>
+      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -960,25 +1096,23 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>15</v>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G21"/>
-      <c r="H21" t="s">
-        <v>25</v>
+      <c r="H21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I21"/>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
+      <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -1000,17 +1134,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="1"/>
+      <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="1"/>
+      <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1020,18 +1154,20 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G24"/>
-      <c r="H24"/>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I24"/>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -1039,14 +1175,14 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="1"/>
+      <c r="F25"/>
       <c r="G25"/>
-      <c r="H25" s="1"/>
+      <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -1056,20 +1192,20 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26"/>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G26"/>
-      <c r="H26" t="s">
-        <v>32</v>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I26"/>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -1080,9 +1216,9 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="1"/>
+      <c r="F27"/>
       <c r="G27"/>
-      <c r="H27" s="1"/>
+      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -1091,23 +1227,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G28"/>
-      <c r="H28" t="s">
-        <v>8</v>
+      <c r="H28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I28"/>
-      <c r="J28" t="s">
-        <v>8</v>
-      </c>
+      <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -1129,17 +1265,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" s="1"/>
+      <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" s="1"/>
+      <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -1149,18 +1285,20 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G31"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I31"/>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
+      <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -1168,22 +1306,20 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" t="s">
-        <v>21</v>
+      <c r="F32" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G32"/>
-      <c r="H32" t="s">
-        <v>39</v>
+      <c r="H32" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I32"/>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
+      <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -1205,17 +1341,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="1"/>
+      <c r="F34"/>
       <c r="G34"/>
-      <c r="H34" s="1"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -1225,18 +1361,20 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35"/>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G35"/>
-      <c r="H35"/>
+      <c r="H35" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="I35"/>
-      <c r="J35" t="s">
-        <v>11</v>
-      </c>
+      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -1247,9 +1385,9 @@
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="1"/>
+      <c r="F36"/>
       <c r="G36"/>
-      <c r="H36" s="1"/>
+      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -1258,21 +1396,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G37"/>
-      <c r="H37"/>
+      <c r="H37" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I37"/>
-      <c r="J37" t="s">
-        <v>11</v>
-      </c>
+      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -1294,17 +1434,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="1"/>
+      <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="1"/>
+      <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -1314,18 +1454,20 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40"/>
+      <c r="F40" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G40"/>
-      <c r="H40"/>
+      <c r="H40" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="I40"/>
-      <c r="J40" t="s">
-        <v>11</v>
-      </c>
+      <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -1336,9 +1478,9 @@
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" s="1"/>
+      <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="1"/>
+      <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -1347,21 +1489,23 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42"/>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G42"/>
-      <c r="H42"/>
+      <c r="H42" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I42"/>
-      <c r="J42" t="s">
-        <v>11</v>
-      </c>
+      <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
@@ -1383,17 +1527,17 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44" s="1"/>
+      <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" s="1"/>
+      <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -1403,18 +1547,20 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45"/>
+      <c r="F45" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G45"/>
-      <c r="H45"/>
+      <c r="H45" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I45"/>
-      <c r="J45" t="s">
-        <v>11</v>
-      </c>
+      <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
@@ -1422,14 +1568,14 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="1"/>
+      <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="1"/>
+      <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -1439,18 +1585,20 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47"/>
+      <c r="F47" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G47"/>
-      <c r="H47"/>
+      <c r="H47" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="I47"/>
-      <c r="J47" t="s">
-        <v>11</v>
-      </c>
+      <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -1461,9 +1609,9 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48" s="1"/>
+      <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" s="1"/>
+      <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -1472,21 +1620,23 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49"/>
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G49"/>
-      <c r="H49"/>
+      <c r="H49" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I49"/>
-      <c r="J49" t="s">
-        <v>11</v>
-      </c>
+      <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -1497,9 +1647,9 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="1"/>
+      <c r="F50"/>
       <c r="G50"/>
-      <c r="H50" s="1"/>
+      <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -1508,21 +1658,23 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51"/>
+      <c r="F51" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G51"/>
-      <c r="H51"/>
+      <c r="H51" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I51"/>
-      <c r="J51" t="s">
-        <v>11</v>
-      </c>
+      <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -1530,7 +1682,7 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1550,9 +1702,9 @@
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="1"/>
+      <c r="F53"/>
       <c r="G53"/>
-      <c r="H53" s="1"/>
+      <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -1561,21 +1713,23 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G54"/>
-      <c r="H54"/>
+      <c r="H54" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I54"/>
-      <c r="J54" t="s">
-        <v>11</v>
-      </c>
+      <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
@@ -1586,9 +1740,9 @@
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="1"/>
+      <c r="F55"/>
       <c r="G55"/>
-      <c r="H55" s="1"/>
+      <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -1597,21 +1751,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56"/>
+      <c r="F56" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G56"/>
-      <c r="H56"/>
+      <c r="H56" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I56"/>
-      <c r="J56" t="s">
-        <v>11</v>
-      </c>
+      <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
@@ -1622,9 +1778,9 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="1"/>
+      <c r="F57"/>
       <c r="G57"/>
-      <c r="H57" s="1"/>
+      <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -1633,21 +1789,23 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58"/>
+      <c r="F58" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G58"/>
-      <c r="H58"/>
+      <c r="H58" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I58"/>
-      <c r="J58" t="s">
-        <v>11</v>
-      </c>
+      <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
@@ -1655,7 +1813,7 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -1696,32 +1854,28 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61" t="s">
-        <v>68</v>
-      </c>
+      <c r="L61"/>
       <c r="M61" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I62"/>
-      <c r="J62" t="s">
-        <v>72</v>
-      </c>
+      <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -1778,15 +1932,15 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">X.- ASUNTOS TURNADOS A ELABORACION DE PROYECTO</t>
@@ -47,39 +47,18 @@
     <t xml:space="preserve">a) Entre dos o más núcleos de población ejidal o comunal;</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_26</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">b) Entre núcleo(s) de población ejidal o comunal y pequeños propietarios; y</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_27</t>
-  </si>
-  <si>
     <t xml:space="preserve">c) Entre núcleo(s) de población ejidal o comunal y sociedades.</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_28</t>
-  </si>
-  <si>
     <t xml:space="preserve">d) Entre núcleo(s) de población ejidal o comunal y colonia agricola que adopta dominio pleno.</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_29</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -89,55 +68,31 @@
     <t xml:space="preserve">a) Contra actos de autoridades administrativas o jurisdiccionales, fuera de juicio; o,</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_30</t>
-  </si>
-  <si>
     <t xml:space="preserve">b) Contra  actos de particulares;</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_31</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Reconocimiento de régimen comunal (fracc. III)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_32</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">Nulidades promovidas en contra de resoluciones de autoridades agrarias (fracc. IV)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_33</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">Conflictos derivados de la tenencia de la tierra (fracc. V)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_34</t>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -149,22 +104,13 @@
     <t xml:space="preserve">a) De ejidatarios, comuneros, posesionarios o avecindados entre sí; y</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_35</t>
-  </si>
-  <si>
     <t xml:space="preserve">b) Entre ejidatarios, comuneros, posesionarios y avecindados con</t>
   </si>
   <si>
     <t xml:space="preserve">los órganos del núcleo de población.</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_36</t>
+    <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -173,12 +119,6 @@
     <t xml:space="preserve">Sucesión de derechos agrarios (fracc. VII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_37</t>
-  </si>
-  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
@@ -188,19 +128,13 @@
     <t xml:space="preserve">a) Las hipótesis contenidas en la fracc. VIII y IX del art. 27 constitucional; y</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_38</t>
-  </si>
-  <si>
     <t xml:space="preserve">b) En actos o contratos que contravienen las Leyes Agrarias (fracc. VIII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_39</t>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -212,24 +146,12 @@
     <t xml:space="preserve">entidades mencionadas (fracc. IX)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_40</t>
-  </si>
-  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Asuntos de Jurisdicción Voluntaria (fracc. X)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_41</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -239,24 +161,12 @@
     <t xml:space="preserve">ejidales a que se refiere el art. 45 de la Ley Agraria (fracc. XI);</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_42</t>
-  </si>
-  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">De la reversión a que se refiere el art. 79 de la Ley Agraria (fracc. XII);</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_43</t>
-  </si>
-  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
@@ -266,48 +176,24 @@
     <t xml:space="preserve">a) Los convenios a que se refiere la fracc. VI del art. 85 de la Ley Agraria; y,</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_44</t>
-  </si>
-  <si>
     <t xml:space="preserve">b) Los laudos arbitrales en materia agraria; previa determinación de que se</t>
   </si>
   <si>
     <t xml:space="preserve">encuentren apegados a las disposiciones legales aplicables (fracc. XIII);</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_45</t>
-  </si>
-  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">De los demás asuntos que determinen las leyes (fracc. XIV));</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_46</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Restitución, reconocimiento y titulación de bienes comunales</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_47</t>
-  </si>
-  <si>
     <t xml:space="preserve">(L.F.R.A.); (Art. IV Transitorio L.O.T.A. Fracc. I)</t>
   </si>
   <si>
@@ -317,49 +203,37 @@
     <t xml:space="preserve">Privación de derechos agrarios (L.F.R.A.); (Art.V trans. L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_48</t>
-  </si>
-  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">Inconformidades (L.F.R.A.); (Art. V Trans. L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_49</t>
-  </si>
-  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">Otros asuntos contenidos en la legislación agraria anterior</t>
   </si>
   <si>
-    <t xml:space="preserve">H09_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Conflictos por la posesión y goce de una unidad de dotación, suspensión de derechos agrarios, etc.)</t>
   </si>
   <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
     <t xml:space="preserve">El total de esta sección debe ser mayor al especificado en la Hoja8bis, sección "En Instrucción", apartado "Para Sentencia"</t>
   </si>
   <si>
     <t xml:space="preserve">T O T A L:</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">2024</t>
@@ -851,15 +725,13 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8"/>
+      <c r="H8" s="1"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="G8"/>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -867,20 +739,20 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9"/>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I9"/>
-      <c r="J9"/>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -888,20 +760,18 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10"/>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10"/>
-      <c r="J10"/>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -909,20 +779,18 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11"/>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11"/>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -944,10 +812,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -964,20 +832,18 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14"/>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14"/>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -985,20 +851,20 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15"/>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I15"/>
-      <c r="J15"/>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -1020,23 +886,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17"/>
-      <c r="H17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17"/>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -1058,23 +922,23 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19"/>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -1096,23 +960,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I21"/>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -1134,10 +1000,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1154,20 +1020,18 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24"/>
-      <c r="H24" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -1175,7 +1039,7 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -1192,20 +1056,20 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26"/>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I26"/>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -1227,23 +1091,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28"/>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I28"/>
-      <c r="J28"/>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -1265,10 +1129,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1285,20 +1149,18 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31"/>
-      <c r="H31" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31"/>
-      <c r="J31"/>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -1306,20 +1168,22 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -1341,10 +1205,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1361,20 +1225,18 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35"/>
-      <c r="H35" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35"/>
-      <c r="J35"/>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -1396,23 +1258,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37"/>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37"/>
-      <c r="J37"/>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -1434,10 +1294,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1454,20 +1314,18 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40"/>
-      <c r="H40" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40"/>
-      <c r="J40"/>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -1489,23 +1347,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42"/>
-      <c r="H42" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42"/>
-      <c r="J42"/>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
@@ -1527,10 +1383,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1547,20 +1403,18 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45"/>
-      <c r="H45" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="H45" s="1"/>
       <c r="I45"/>
-      <c r="J45"/>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
@@ -1568,7 +1422,7 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1585,20 +1439,18 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="F47" s="1"/>
       <c r="G47"/>
-      <c r="H47" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="H47" s="1"/>
       <c r="I47"/>
-      <c r="J47"/>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -1620,23 +1472,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F49" s="1"/>
       <c r="G49"/>
-      <c r="H49" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H49" s="1"/>
       <c r="I49"/>
-      <c r="J49"/>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -1658,23 +1508,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51"/>
-      <c r="H51" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="H51" s="1"/>
       <c r="I51"/>
-      <c r="J51"/>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -1682,7 +1530,7 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1713,23 +1561,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54"/>
-      <c r="H54" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="H54" s="1"/>
       <c r="I54"/>
-      <c r="J54"/>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
@@ -1751,23 +1597,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="F56" s="1"/>
       <c r="G56"/>
-      <c r="H56" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="H56" s="1"/>
       <c r="I56"/>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
@@ -1789,23 +1633,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="F58" s="1"/>
       <c r="G58"/>
-      <c r="H58" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="H58" s="1"/>
       <c r="I58"/>
-      <c r="J58"/>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
@@ -1813,7 +1655,7 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -1854,28 +1696,32 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
+      <c r="L61" t="s">
+        <v>68</v>
+      </c>
       <c r="M61" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I62"/>
-      <c r="J62"/>
+      <c r="J62" t="s">
+        <v>72</v>
+      </c>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -1932,15 +1778,15 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja9.xlsx
@@ -233,7 +233,7 @@
     <t xml:space="preserve">98</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">2024</t>
